--- a/classification-master.xlsx
+++ b/classification-master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessica\Documents\Argonne\flame-stability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessica\Documents\Argonne\flame-spray-pyrolysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F8C906-5D1E-413F-A24D-6BD80AF06035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E20C94A-DE29-4F65-9A19-678329931CBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="190" windowWidth="14400" windowHeight="10010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classification-master" sheetId="1" r:id="rId1"/>
@@ -1095,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1187,7 +1187,6 @@
         <v>2</v>
       </c>
       <c r="M2">
-        <f>AVERAGE(D2:L2)</f>
         <v>2</v>
       </c>
     </row>
@@ -1229,8 +1228,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M54" si="0">AVERAGE(D3:L3)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1271,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M3:M54" si="0">AVERAGE(D4:L4)</f>
         <v>0.1111111111111111</v>
       </c>
     </row>
